--- a/results/2012_reps_by_priority(3).xlsx
+++ b/results/2012_reps_by_priority(3).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6A468-F93E-A549-B6B5-8C02A9CF43D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD3684-5822-0C49-85F0-CE7113524976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1560" windowWidth="26940" windowHeight="16440" xr2:uid="{2F9ADB9C-1C40-9643-B96B-FA9606D4E1FA}"/>
   </bookViews>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -297,9 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,19 +622,20 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomRight" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" customWidth="1"/>
@@ -1823,56 +1821,52 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24">
         <v>458</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24">
         <v>675958</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24">
         <v>10</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="3">
         <v>0.45809499999999997</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="3">
         <v>0.55555600000000005</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="3">
         <v>0.141905</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="3">
         <v>4.1904999999999998E-2</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="3">
         <v>0.111111</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24">
         <v>17</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="13" t="str">
+      <c r="M24" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>GOOD</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13" t="s">
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>GOOD</v>
+      </c>
+      <c r="S24" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="13" t="str">
+      <c r="T24" t="str">
         <f t="shared" si="2"/>
         <v>SAME</v>
       </c>
@@ -3328,56 +3322,52 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="A53">
         <v>487</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53">
         <v>638348</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53">
         <v>59</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="3">
         <v>0.58996599999999999</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="3">
         <v>0.68965500000000002</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="3">
         <v>0.104949</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="3">
         <v>0.1</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53">
         <v>6</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="13" t="str">
+      <c r="M53" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N53" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>GOOD</v>
-      </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13" t="s">
+      <c r="N53" t="str">
+        <f t="shared" si="1"/>
+        <v>GOOD</v>
+      </c>
+      <c r="S53" t="s">
         <v>15</v>
       </c>
-      <c r="T53" s="13" t="str">
+      <c r="T53" t="str">
         <f t="shared" si="2"/>
         <v>SAME</v>
       </c>
@@ -3595,56 +3585,52 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58">
         <v>492</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58">
         <v>627717</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58">
         <v>21</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="3">
         <v>0.55411299999999997</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="3">
         <v>0.65</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="3">
         <v>0.112554</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="3">
         <v>6.4935000000000007E-2</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="3">
         <v>0.1</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58">
         <v>4</v>
       </c>
       <c r="L58" s="2"/>
-      <c r="M58" s="13" t="str">
+      <c r="M58" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
-      <c r="N58" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>GOOD</v>
-      </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13" t="s">
+      <c r="N58" t="str">
+        <f t="shared" si="1"/>
+        <v>GOOD</v>
+      </c>
+      <c r="S58" t="s">
         <v>15</v>
       </c>
-      <c r="T58" s="13" t="str">
+      <c r="T58" t="str">
         <f t="shared" si="2"/>
         <v>SAME</v>
       </c>
